--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori4/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori4/99/correct_predictions_99.xlsx
@@ -851,7 +851,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori4/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori4/99/correct_predictions_99.xlsx
@@ -851,7 +851,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
